--- a/scripts/correlation/metric_df/CMA_metrics.xlsx
+++ b/scripts/correlation/metric_df/CMA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.25154679</v>
       </c>
       <c r="C2" t="n">
-        <v>2.47631810626725</v>
+        <v>2.499273110002262</v>
       </c>
       <c r="D2" t="n">
         <v>2.545183117472284</v>
       </c>
       <c r="E2" t="n">
-        <v>4.9526362125345</v>
+        <v>7.497819330006784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2494403773710726</v>
+        <v>0.2648604082630506</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>-0.208693949</v>
       </c>
       <c r="C3" t="n">
-        <v>2.251811563897599</v>
+        <v>2.215075168620446</v>
       </c>
       <c r="D3" t="n">
         <v>2.579278004625804</v>
       </c>
       <c r="E3" t="n">
-        <v>6.755434691692797</v>
+        <v>8.860300674481785</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7515763983805789</v>
+        <v>0.8853184401773511</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>-0.215353343</v>
       </c>
       <c r="C4" t="n">
-        <v>2.069150257718639</v>
+        <v>2.058909615922048</v>
       </c>
       <c r="D4" t="n">
         <v>2.099872183108412</v>
       </c>
       <c r="E4" t="n">
-        <v>4.138300515437278</v>
+        <v>6.176728847766144</v>
       </c>
       <c r="F4" t="n">
-        <v>8.666448280000003</v>
+        <v>8.992487900000002</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -557,16 +557,16 @@
         <v>-0.214164165</v>
       </c>
       <c r="C5" t="n">
-        <v>2.90040338690423</v>
+        <v>3.174767572155533</v>
       </c>
       <c r="D5" t="n">
         <v>3.72349594265814</v>
       </c>
       <c r="E5" t="n">
-        <v>5.80080677380846</v>
+        <v>9.5243027164666</v>
       </c>
       <c r="F5" t="n">
-        <v>4.058716975000007</v>
+        <v>4.00230898333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -580,16 +580,16 @@
         <v>-0.174207801</v>
       </c>
       <c r="C6" t="n">
-        <v>2.110932973147702</v>
+        <v>2.116981973180038</v>
       </c>
       <c r="D6" t="n">
         <v>2.12907997324471</v>
       </c>
       <c r="E6" t="n">
-        <v>4.221865946295405</v>
+        <v>6.350945919540115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5234680198646811</v>
+        <v>0.577095712650958</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>0.87738775</v>
       </c>
       <c r="C7" t="n">
-        <v>1.965437253202877</v>
+        <v>1.957447922941055</v>
       </c>
       <c r="D7" t="n">
         <v>1.989405243988341</v>
       </c>
       <c r="E7" t="n">
-        <v>3.930874506405753</v>
+        <v>5.872343768823165</v>
       </c>
       <c r="F7" t="n">
-        <v>7.89394373333333</v>
+        <v>9.072853133333329</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -630,16 +630,16 @@
         <v>1.152972161</v>
       </c>
       <c r="C8" t="n">
-        <v>2.055265185151331</v>
+        <v>2.05758981670778</v>
       </c>
       <c r="D8" t="n">
         <v>2.062239079820679</v>
       </c>
       <c r="E8" t="n">
-        <v>4.110530370302661</v>
+        <v>6.17276945012334</v>
       </c>
       <c r="F8" t="n">
-        <v>10.73322032499999</v>
+        <v>10.04005348333333</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -653,16 +653,16 @@
         <v>-0.090270401</v>
       </c>
       <c r="C9" t="n">
-        <v>1.879699471262461</v>
+        <v>1.846968232871902</v>
       </c>
       <c r="D9" t="n">
         <v>1.934499862432555</v>
       </c>
       <c r="E9" t="n">
-        <v>3.759398942524922</v>
+        <v>5.540904698615707</v>
       </c>
       <c r="F9" t="n">
-        <v>1.044442319999999</v>
+        <v>0.9322519266666675</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C10" t="n">
-        <v>1.79066229872057</v>
+        <v>1.83063598920736</v>
       </c>
       <c r="D10" t="n">
         <v>1.910583370180939</v>
       </c>
       <c r="E10" t="n">
-        <v>3.581324597441141</v>
+        <v>5.49190796762208</v>
       </c>
       <c r="F10" t="n">
-        <v>2.391027108960895</v>
+        <v>2.478018914391439</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -703,16 +703,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C11" t="n">
-        <v>1.856073115777131</v>
+        <v>1.858152681767917</v>
       </c>
       <c r="D11" t="n">
         <v>1.963481983080236</v>
       </c>
       <c r="E11" t="n">
-        <v>3.712146231554263</v>
+        <v>5.574458045303752</v>
       </c>
       <c r="F11" t="n">
-        <v>8.970867068848669</v>
+        <v>9.429924840849251</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -726,16 +726,16 @@
         <v>0.501553351</v>
       </c>
       <c r="C12" t="n">
-        <v>2.173393805100897</v>
+        <v>2.206848884309565</v>
       </c>
       <c r="D12" t="n">
         <v>2.273759042726899</v>
       </c>
       <c r="E12" t="n">
-        <v>4.346787610201794</v>
+        <v>6.620546652928693</v>
       </c>
       <c r="F12" t="n">
-        <v>1.282737626237378</v>
+        <v>1.491419058094192</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -753,16 +753,16 @@
         <v>0.04342138</v>
       </c>
       <c r="C13" t="n">
-        <v>2.144343003119466</v>
+        <v>2.189307250318782</v>
       </c>
       <c r="D13" t="n">
         <v>2.279235744717413</v>
       </c>
       <c r="E13" t="n">
-        <v>4.288686006238931</v>
+        <v>6.567921750956344</v>
       </c>
       <c r="F13" t="n">
-        <v>14.9551726110111</v>
+        <v>16.26505120928759</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -776,16 +776,16 @@
         <v>-0.210477715</v>
       </c>
       <c r="C14" t="n">
-        <v>1.91104251702973</v>
+        <v>1.997638651538766</v>
       </c>
       <c r="D14" t="n">
         <v>2.170830920556838</v>
       </c>
       <c r="E14" t="n">
-        <v>3.822085034059461</v>
+        <v>5.992915954616299</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7255124012401236</v>
+        <v>0.8053542487582086</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -803,16 +803,16 @@
         <v>-0.218474934</v>
       </c>
       <c r="C15" t="n">
-        <v>1.950519344708611</v>
+        <v>2.213149195228248</v>
       </c>
       <c r="D15" t="n">
         <v>2.5444463779032</v>
       </c>
       <c r="E15" t="n">
-        <v>5.851558034125832</v>
+        <v>8.852596780912991</v>
       </c>
       <c r="F15" t="n">
-        <v>1.216908988888886</v>
+        <v>2.255322966666662</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
         <v>-0.215650637</v>
       </c>
       <c r="C16" t="n">
-        <v>1.709586069464573</v>
+        <v>2.102382391846223</v>
       </c>
       <c r="D16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.42187151155289</v>
       </c>
       <c r="E16" t="n">
-        <v>3.419172138929145</v>
+        <v>6.307147175538668</v>
       </c>
       <c r="F16" t="n">
-        <v>1.482504320000001</v>
+        <v>2.017918960000003</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -853,16 +853,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C17" t="n">
-        <v>1.748473542829964</v>
+        <v>1.857166918104961</v>
       </c>
       <c r="D17" t="n">
         <v>2.074553668654954</v>
       </c>
       <c r="E17" t="n">
-        <v>3.496947085659928</v>
+        <v>5.571500754314882</v>
       </c>
       <c r="F17" t="n">
-        <v>4.162041766666664</v>
+        <v>4.909504455555554</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -876,16 +876,16 @@
         <v>-0.224272174</v>
       </c>
       <c r="C18" t="n">
-        <v>2.039262204050003</v>
+        <v>2.006594418123766</v>
       </c>
       <c r="D18" t="n">
         <v>2.771170367232815</v>
       </c>
       <c r="E18" t="n">
-        <v>6.11778661215001</v>
+        <v>8.026377672495064</v>
       </c>
       <c r="F18" t="n">
-        <v>1.82620554</v>
+        <v>1.96466572</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>-0.215531719</v>
       </c>
       <c r="C19" t="n">
-        <v>1.758061884923338</v>
+        <v>1.942436762172238</v>
       </c>
       <c r="D19" t="n">
-        <v>2.061339906144049</v>
+        <v>2.373478855408914</v>
       </c>
       <c r="E19" t="n">
-        <v>5.274185654770013</v>
+        <v>13.59705733520567</v>
       </c>
       <c r="F19" t="n">
-        <v>13.29178475555556</v>
+        <v>14.27629157142857</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C20" t="n">
-        <v>1.925784818383869</v>
+        <v>1.863664484056635</v>
       </c>
       <c r="D20" t="n">
         <v>3.032174824022514</v>
       </c>
       <c r="E20" t="n">
-        <v>5.777354455151607</v>
+        <v>7.454657936226542</v>
       </c>
       <c r="F20" t="n">
-        <v>4.426204300000001</v>
+        <v>4.126990608333335</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1061,16 +1061,16 @@
         <v>-0.018311203</v>
       </c>
       <c r="C25" t="n">
-        <v>3.231920278932534</v>
+        <v>2.969947027950714</v>
       </c>
       <c r="D25" t="n">
         <v>3.231920278932534</v>
       </c>
       <c r="E25" t="n">
-        <v>3.231920278932534</v>
+        <v>5.939894055901428</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3088555855585568</v>
+        <v>0.2100608227489416</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/CMA_metrics.xlsx
+++ b/scripts/correlation/metric_df/CMA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.25154679</v>
       </c>
       <c r="C2" t="n">
-        <v>2.499273110002262</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.545183117472284</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.497819330006784</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2648604082630506</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>-0.208693949</v>
       </c>
       <c r="C3" t="n">
-        <v>2.215075168620446</v>
+        <v>1.162642177225952</v>
       </c>
       <c r="D3" t="n">
         <v>2.579278004625804</v>
       </c>
       <c r="E3" t="n">
-        <v>8.860300674481785</v>
+        <v>4.650568708903808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8853184401773511</v>
+        <v>0.2420461573935173</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>-0.215353343</v>
       </c>
       <c r="C4" t="n">
-        <v>2.058909615922048</v>
+        <v>1.379433505145759</v>
       </c>
       <c r="D4" t="n">
         <v>2.099872183108412</v>
       </c>
       <c r="E4" t="n">
-        <v>6.176728847766144</v>
+        <v>4.138300515437278</v>
       </c>
       <c r="F4" t="n">
-        <v>8.992487900000002</v>
+        <v>5.777632186666668</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -557,16 +557,16 @@
         <v>-0.214164165</v>
       </c>
       <c r="C5" t="n">
-        <v>3.174767572155533</v>
+        <v>1.933602257936153</v>
       </c>
       <c r="D5" t="n">
         <v>3.72349594265814</v>
       </c>
       <c r="E5" t="n">
-        <v>9.5243027164666</v>
+        <v>5.80080677380846</v>
       </c>
       <c r="F5" t="n">
-        <v>4.00230898333334</v>
+        <v>2.705811316666672</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -580,16 +580,16 @@
         <v>-0.174207801</v>
       </c>
       <c r="C6" t="n">
-        <v>2.116981973180038</v>
+        <v>0.6975953243502316</v>
       </c>
       <c r="D6" t="n">
-        <v>2.12907997324471</v>
+        <v>2.092785973050695</v>
       </c>
       <c r="E6" t="n">
-        <v>6.350945919540115</v>
+        <v>2.092785973050695</v>
       </c>
       <c r="F6" t="n">
-        <v>0.577095712650958</v>
+        <v>0.1208616471686166</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>0.87738775</v>
       </c>
       <c r="C7" t="n">
-        <v>1.957447922941055</v>
+        <v>1.310291502135251</v>
       </c>
       <c r="D7" t="n">
         <v>1.989405243988341</v>
       </c>
       <c r="E7" t="n">
-        <v>5.872343768823165</v>
+        <v>3.930874506405753</v>
       </c>
       <c r="F7" t="n">
-        <v>9.072853133333329</v>
+        <v>5.262629155555554</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -630,16 +630,16 @@
         <v>1.152972161</v>
       </c>
       <c r="C8" t="n">
-        <v>2.05758981670778</v>
+        <v>1.370176790100887</v>
       </c>
       <c r="D8" t="n">
         <v>2.062239079820679</v>
       </c>
       <c r="E8" t="n">
-        <v>6.17276945012334</v>
+        <v>4.110530370302661</v>
       </c>
       <c r="F8" t="n">
-        <v>10.04005348333333</v>
+        <v>7.155480216666663</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -653,16 +653,16 @@
         <v>-0.090270401</v>
       </c>
       <c r="C9" t="n">
-        <v>1.846968232871902</v>
+        <v>1.253132980841641</v>
       </c>
       <c r="D9" t="n">
         <v>1.934499862432555</v>
       </c>
       <c r="E9" t="n">
-        <v>5.540904698615707</v>
+        <v>3.759398942524922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9322519266666675</v>
+        <v>0.6962948799999996</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C10" t="n">
-        <v>1.83063598920736</v>
+        <v>1.193774865813714</v>
       </c>
       <c r="D10" t="n">
         <v>1.910583370180939</v>
       </c>
       <c r="E10" t="n">
-        <v>5.49190796762208</v>
+        <v>3.581324597441141</v>
       </c>
       <c r="F10" t="n">
-        <v>2.478018914391439</v>
+        <v>1.594018072640597</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -703,16 +703,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C11" t="n">
-        <v>1.858152681767917</v>
+        <v>1.237382077184754</v>
       </c>
       <c r="D11" t="n">
         <v>1.963481983080236</v>
       </c>
       <c r="E11" t="n">
-        <v>5.574458045303752</v>
+        <v>3.712146231554263</v>
       </c>
       <c r="F11" t="n">
-        <v>9.429924840849251</v>
+        <v>5.980578045899112</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -726,16 +726,16 @@
         <v>0.501553351</v>
       </c>
       <c r="C12" t="n">
-        <v>2.206848884309565</v>
+        <v>0.6910095224916316</v>
       </c>
       <c r="D12" t="n">
-        <v>2.273759042726899</v>
+        <v>2.073028567474895</v>
       </c>
       <c r="E12" t="n">
-        <v>6.620546652928693</v>
+        <v>2.073028567474895</v>
       </c>
       <c r="F12" t="n">
-        <v>1.491419058094192</v>
+        <v>0.2188977768889787</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -753,16 +753,16 @@
         <v>0.04342138</v>
       </c>
       <c r="C13" t="n">
-        <v>2.189307250318782</v>
+        <v>1.429562002079644</v>
       </c>
       <c r="D13" t="n">
         <v>2.279235744717413</v>
       </c>
       <c r="E13" t="n">
-        <v>6.567921750956344</v>
+        <v>4.288686006238931</v>
       </c>
       <c r="F13" t="n">
-        <v>16.26505120928759</v>
+        <v>9.970115074007397</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -776,16 +776,16 @@
         <v>-0.210477715</v>
       </c>
       <c r="C14" t="n">
-        <v>1.997638651538766</v>
+        <v>1.274028344686487</v>
       </c>
       <c r="D14" t="n">
         <v>2.170830920556838</v>
       </c>
       <c r="E14" t="n">
-        <v>5.992915954616299</v>
+        <v>3.822085034059461</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8053542487582086</v>
+        <v>0.4836749341600824</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -803,16 +803,16 @@
         <v>-0.218474934</v>
       </c>
       <c r="C15" t="n">
-        <v>2.213149195228248</v>
+        <v>1.462889508531458</v>
       </c>
       <c r="D15" t="n">
         <v>2.5444463779032</v>
       </c>
       <c r="E15" t="n">
-        <v>8.852596780912991</v>
+        <v>5.851558034125832</v>
       </c>
       <c r="F15" t="n">
-        <v>2.255322966666662</v>
+        <v>0.9126817416666642</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
         <v>-0.215650637</v>
       </c>
       <c r="C16" t="n">
-        <v>2.102382391846223</v>
+        <v>1.139724046309715</v>
       </c>
       <c r="D16" t="n">
-        <v>2.42187151155289</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E16" t="n">
-        <v>6.307147175538668</v>
+        <v>3.419172138929145</v>
       </c>
       <c r="F16" t="n">
-        <v>2.017918960000003</v>
+        <v>0.9883362133333341</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -853,16 +853,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C17" t="n">
-        <v>1.857166918104961</v>
+        <v>1.165649028553309</v>
       </c>
       <c r="D17" t="n">
         <v>2.074553668654954</v>
       </c>
       <c r="E17" t="n">
-        <v>5.571500754314882</v>
+        <v>3.496947085659928</v>
       </c>
       <c r="F17" t="n">
-        <v>4.909504455555554</v>
+        <v>2.774694511111109</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -876,16 +876,16 @@
         <v>-0.224272174</v>
       </c>
       <c r="C18" t="n">
-        <v>2.006594418123766</v>
+        <v>1.529446653037502</v>
       </c>
       <c r="D18" t="n">
         <v>2.771170367232815</v>
       </c>
       <c r="E18" t="n">
-        <v>8.026377672495064</v>
+        <v>6.11778661215001</v>
       </c>
       <c r="F18" t="n">
-        <v>1.96466572</v>
+        <v>1.369654155</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>-0.215531719</v>
       </c>
       <c r="C19" t="n">
-        <v>1.942436762172238</v>
+        <v>1.222060178213162</v>
       </c>
       <c r="D19" t="n">
-        <v>2.373478855408914</v>
+        <v>2.061339906144049</v>
       </c>
       <c r="E19" t="n">
-        <v>13.59705733520567</v>
+        <v>8.554421247492137</v>
       </c>
       <c r="F19" t="n">
-        <v>14.27629157142857</v>
+        <v>9.542206028571426</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         <v>-0.30985894</v>
       </c>
       <c r="C20" t="n">
-        <v>1.863664484056635</v>
+        <v>1.444338613787902</v>
       </c>
       <c r="D20" t="n">
         <v>3.032174824022514</v>
       </c>
       <c r="E20" t="n">
-        <v>7.454657936226542</v>
+        <v>5.777354455151607</v>
       </c>
       <c r="F20" t="n">
-        <v>4.126990608333335</v>
+        <v>3.319653225000001</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -953,16 +953,16 @@
         <v>-0.199041791</v>
       </c>
       <c r="C21" t="n">
-        <v>2.887337081704626</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.887337081704626</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.887337081704626</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2439502333333315</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -980,16 +980,16 @@
         <v>-0.256303501</v>
       </c>
       <c r="C22" t="n">
-        <v>3.020173157764432</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.020173157764432</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.020173157764432</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.276867153382004</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1061,16 +1061,16 @@
         <v>-0.018311203</v>
       </c>
       <c r="C25" t="n">
-        <v>2.969947027950714</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.231920278932534</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.939894055901428</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2100608227489416</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         <v>0.38077223</v>
       </c>
       <c r="C26" t="n">
-        <v>3.100918634996691</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3.100918634996691</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.100918634996691</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3.798450160000005</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1111,16 +1111,16 @@
         <v>-0.212915529</v>
       </c>
       <c r="C27" t="n">
-        <v>2.789564909356058</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.789564909356058</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.789564909356058</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2367685631436876</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1165,16 +1165,16 @@
         <v>-0.211220951</v>
       </c>
       <c r="C29" t="n">
-        <v>3.055217489857853</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.055217489857853</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.055217489857853</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2836208129187068</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1408,16 +1408,16 @@
         <v>-0.210537174</v>
       </c>
       <c r="C38" t="n">
-        <v>2.718806452913184</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.718806452913184</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.718806452913184</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3604150015001459</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1435,16 +1435,16 @@
         <v>-0.260227786</v>
       </c>
       <c r="C39" t="n">
-        <v>2.868751172684017</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2.868751172684017</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2.868751172684017</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4366203820382036</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/CMA_metrics.xlsx
+++ b/scripts/correlation/metric_df/CMA_metrics.xlsx
@@ -545,7 +545,11 @@
       <c r="F4" t="n">
         <v>5.777632186666668</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -568,7 +572,11 @@
       <c r="F5" t="n">
         <v>2.705811316666672</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -618,7 +626,11 @@
       <c r="F7" t="n">
         <v>5.262629155555554</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -641,7 +653,11 @@
       <c r="F8" t="n">
         <v>7.155480216666663</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -691,7 +707,11 @@
       <c r="F10" t="n">
         <v>1.594018072640597</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,7 +734,11 @@
       <c r="F11" t="n">
         <v>5.980578045899112</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -764,7 +788,11 @@
       <c r="F13" t="n">
         <v>9.970115074007397</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -841,7 +869,11 @@
       <c r="F16" t="n">
         <v>0.9883362133333341</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,7 +896,11 @@
       <c r="F17" t="n">
         <v>2.774694511111109</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -941,7 +977,11 @@
       <c r="F20" t="n">
         <v>3.319653225000001</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1099,7 +1139,11 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1473,7 +1517,11 @@
       <c r="F40" t="n">
         <v>7.254458429157088</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1496,7 +1544,11 @@
       <c r="F41" t="n">
         <v>5.99159165</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/correlation/metric_df/CMA_metrics.xlsx
+++ b/scripts/correlation/metric_df/CMA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
         <v>-0.25154679</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.47631810626725</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.545183117472284</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.9526362125345</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2494403773710726</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>-0.208693949</v>
       </c>
       <c r="C3" t="n">
-        <v>1.162642177225952</v>
+        <v>2.251811563897599</v>
       </c>
       <c r="D3" t="n">
         <v>2.579278004625804</v>
       </c>
       <c r="E3" t="n">
-        <v>4.650568708903808</v>
+        <v>6.755434691692797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2420461573935173</v>
+        <v>0.7515763983805789</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         <v>-0.215353343</v>
       </c>
       <c r="C4" t="n">
-        <v>1.379433505145759</v>
+        <v>2.069150257718639</v>
       </c>
       <c r="D4" t="n">
         <v>2.099872183108412</v>
@@ -543,7 +543,7 @@
         <v>4.138300515437278</v>
       </c>
       <c r="F4" t="n">
-        <v>5.777632186666668</v>
+        <v>8.666448280000003</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>-0.214164165</v>
       </c>
       <c r="C5" t="n">
-        <v>1.933602257936153</v>
+        <v>2.080068376542343</v>
       </c>
       <c r="D5" t="n">
-        <v>3.72349594265814</v>
+        <v>2.082825921934366</v>
       </c>
       <c r="E5" t="n">
-        <v>5.80080677380846</v>
+        <v>4.160136753084686</v>
       </c>
       <c r="F5" t="n">
-        <v>2.705811316666672</v>
+        <v>3.273085450000005</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>-0.174207801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6975953243502316</v>
+        <v>2.110932973147702</v>
       </c>
       <c r="D6" t="n">
-        <v>2.092785973050695</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="E6" t="n">
-        <v>2.092785973050695</v>
+        <v>4.221865946295405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1208616471686166</v>
+        <v>0.5234680198646811</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -608,23 +608,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.87738775</v>
+        <v>1.152972161</v>
       </c>
       <c r="C7" t="n">
-        <v>1.310291502135251</v>
+        <v>2.055265185151331</v>
       </c>
       <c r="D7" t="n">
-        <v>1.989405243988341</v>
+        <v>2.062239079820679</v>
       </c>
       <c r="E7" t="n">
-        <v>3.930874506405753</v>
+        <v>4.110530370302661</v>
       </c>
       <c r="F7" t="n">
-        <v>5.262629155555554</v>
+        <v>10.73322032499999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -635,77 +635,77 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.152972161</v>
+        <v>-0.090270401</v>
       </c>
       <c r="C8" t="n">
-        <v>1.370176790100887</v>
+        <v>1.803202418091576</v>
       </c>
       <c r="D8" t="n">
-        <v>2.062239079820679</v>
+        <v>1.934499862432555</v>
       </c>
       <c r="E8" t="n">
-        <v>4.110530370302661</v>
+        <v>3.606404836183152</v>
       </c>
       <c r="F8" t="n">
-        <v>7.155480216666663</v>
+        <v>0.833091190000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.090270401</v>
+        <v>-0.30985894</v>
       </c>
       <c r="C9" t="n">
-        <v>1.253132980841641</v>
+        <v>1.79066229872057</v>
       </c>
       <c r="D9" t="n">
-        <v>1.934499862432555</v>
+        <v>1.910583370180939</v>
       </c>
       <c r="E9" t="n">
-        <v>3.759398942524922</v>
+        <v>3.581324597441141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6962948799999996</v>
+        <v>2.391027108960895</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>-0.30985894</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193774865813714</v>
+        <v>1.805488031111758</v>
       </c>
       <c r="D10" t="n">
-        <v>1.910583370180939</v>
+        <v>1.963481983080236</v>
       </c>
       <c r="E10" t="n">
-        <v>3.581324597441141</v>
+        <v>3.610976062223516</v>
       </c>
       <c r="F10" t="n">
-        <v>1.594018072640597</v>
+        <v>9.114397937983981</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -716,104 +716,104 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.30985894</v>
+        <v>0.501553351</v>
       </c>
       <c r="C11" t="n">
-        <v>1.237382077184754</v>
+        <v>2.173393805100897</v>
       </c>
       <c r="D11" t="n">
-        <v>1.963481983080236</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="E11" t="n">
-        <v>3.712146231554263</v>
+        <v>4.346787610201794</v>
       </c>
       <c r="F11" t="n">
-        <v>5.980578045899112</v>
+        <v>1.282737626237378</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.501553351</v>
+        <v>0.04342138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6910095224916316</v>
+        <v>2.144343003119466</v>
       </c>
       <c r="D12" t="n">
-        <v>2.073028567474895</v>
+        <v>2.279235744717413</v>
       </c>
       <c r="E12" t="n">
-        <v>2.073028567474895</v>
+        <v>4.288686006238931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2188977768889787</v>
+        <v>14.9551726110111</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04342138</v>
+        <v>-0.210477715</v>
       </c>
       <c r="C13" t="n">
-        <v>1.429562002079644</v>
+        <v>1.91104251702973</v>
       </c>
       <c r="D13" t="n">
-        <v>2.279235744717413</v>
+        <v>2.170830920556838</v>
       </c>
       <c r="E13" t="n">
-        <v>4.288686006238931</v>
+        <v>3.822085034059461</v>
       </c>
       <c r="F13" t="n">
-        <v>9.970115074007397</v>
+        <v>0.7255124012401236</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.210477715</v>
+        <v>-0.218474934</v>
       </c>
       <c r="C14" t="n">
-        <v>1.274028344686487</v>
+        <v>1.950519344708611</v>
       </c>
       <c r="D14" t="n">
-        <v>2.170830920556838</v>
+        <v>2.5444463779032</v>
       </c>
       <c r="E14" t="n">
-        <v>3.822085034059461</v>
+        <v>5.851558034125832</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4836749341600824</v>
+        <v>1.216908988888886</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -824,50 +824,50 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.218474934</v>
+        <v>-0.215650637</v>
       </c>
       <c r="C15" t="n">
-        <v>1.462889508531458</v>
+        <v>1.709586069464573</v>
       </c>
       <c r="D15" t="n">
-        <v>2.5444463779032</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E15" t="n">
-        <v>5.851558034125832</v>
+        <v>3.419172138929145</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9126817416666642</v>
+        <v>1.482504320000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.215650637</v>
+        <v>-0.30985894</v>
       </c>
       <c r="C16" t="n">
-        <v>1.139724046309715</v>
+        <v>1.748473542829964</v>
       </c>
       <c r="D16" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="E16" t="n">
-        <v>3.419172138929145</v>
+        <v>3.496947085659928</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9883362133333341</v>
+        <v>4.162041766666664</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -878,50 +878,50 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.30985894</v>
+        <v>-0.224272174</v>
       </c>
       <c r="C17" t="n">
-        <v>1.165649028553309</v>
+        <v>2.039262204050003</v>
       </c>
       <c r="D17" t="n">
-        <v>2.074553668654954</v>
+        <v>2.771170367232815</v>
       </c>
       <c r="E17" t="n">
-        <v>3.496947085659928</v>
+        <v>6.11778661215001</v>
       </c>
       <c r="F17" t="n">
-        <v>2.774694511111109</v>
+        <v>1.82620554</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.224272174</v>
+        <v>-0.215531719</v>
       </c>
       <c r="C18" t="n">
-        <v>1.529446653037502</v>
+        <v>1.710884249498427</v>
       </c>
       <c r="D18" t="n">
-        <v>2.771170367232815</v>
+        <v>2.061339906144049</v>
       </c>
       <c r="E18" t="n">
-        <v>6.11778661215001</v>
+        <v>8.554421247492137</v>
       </c>
       <c r="F18" t="n">
-        <v>1.369654155</v>
+        <v>13.35908844</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -932,77 +932,77 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.215531719</v>
+        <v>-0.30985894</v>
       </c>
       <c r="C19" t="n">
-        <v>1.222060178213162</v>
+        <v>1.925784818383869</v>
       </c>
       <c r="D19" t="n">
-        <v>2.061339906144049</v>
+        <v>3.032174824022514</v>
       </c>
       <c r="E19" t="n">
-        <v>8.554421247492137</v>
+        <v>5.777354455151607</v>
       </c>
       <c r="F19" t="n">
-        <v>9.542206028571426</v>
+        <v>4.426204300000001</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.30985894</v>
+        <v>-0.199041791</v>
       </c>
       <c r="C20" t="n">
-        <v>1.444338613787902</v>
+        <v>2.887337081704626</v>
       </c>
       <c r="D20" t="n">
-        <v>3.032174824022514</v>
+        <v>2.887337081704626</v>
       </c>
       <c r="E20" t="n">
-        <v>5.777354455151607</v>
+        <v>2.887337081704626</v>
       </c>
       <c r="F20" t="n">
-        <v>3.319653225000001</v>
+        <v>0.2439502333333315</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gal(a1-3)GalNAc</t>
+          <t>Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.199041791</v>
+        <v>-0.256303501</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.020173157764432</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.020173157764432</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.020173157764432</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.276867153382004</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1013,23 +1013,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.256303501</v>
+        <v>-0.209020972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.227165700473461</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.227165700473461</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.227165700473461</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.6479260199999979</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1040,23 +1040,23 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.209020972</v>
+        <v>-0.210893927</v>
       </c>
       <c r="C23" t="n">
-        <v>2.227165700473461</v>
+        <v>2.143279178290989</v>
       </c>
       <c r="D23" t="n">
-        <v>2.227165700473461</v>
+        <v>2.143279178290989</v>
       </c>
       <c r="E23" t="n">
-        <v>2.227165700473461</v>
+        <v>2.143279178290989</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6479260199999979</v>
+        <v>0.4713110999999956</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1067,23 +1067,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>GalNAc(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.210893927</v>
+        <v>-0.018311203</v>
       </c>
       <c r="C24" t="n">
-        <v>2.143279178290989</v>
+        <v>2.969947027950714</v>
       </c>
       <c r="D24" t="n">
-        <v>2.143279178290989</v>
+        <v>3.231920278932534</v>
       </c>
       <c r="E24" t="n">
-        <v>2.143279178290989</v>
+        <v>5.939894055901428</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4713110999999956</v>
+        <v>0.2100608227489416</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1094,77 +1094,77 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(a1-3)GalNAc</t>
+          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.018311203</v>
+        <v>0.38077223</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.798450160000005</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.38077223</v>
+        <v>-0.212915529</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.789564909356058</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.789564909356058</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.789564909356058</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.2367685631436876</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)GalNAc</t>
+          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.212915529</v>
+        <v>-0.219307358</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.038884053120076</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.038884053120076</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.038884053120076</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.437647368596473</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1175,23 +1175,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.219307358</v>
+        <v>-0.211220951</v>
       </c>
       <c r="C28" t="n">
-        <v>2.038884053120076</v>
+        <v>3.055217489857853</v>
       </c>
       <c r="D28" t="n">
-        <v>2.038884053120076</v>
+        <v>3.055217489857853</v>
       </c>
       <c r="E28" t="n">
-        <v>2.038884053120076</v>
+        <v>3.055217489857853</v>
       </c>
       <c r="F28" t="n">
-        <v>0.437647368596473</v>
+        <v>0.2836208129187068</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1202,23 +1202,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-6)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.211220951</v>
+        <v>-0.261729123</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.846429756280896</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.846429756280896</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.846429756280896</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.492379299999999</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1229,23 +1229,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.261729123</v>
+        <v>-0.224628927</v>
       </c>
       <c r="C30" t="n">
-        <v>2.846429756280896</v>
+        <v>2.514153446788329</v>
       </c>
       <c r="D30" t="n">
-        <v>2.846429756280896</v>
+        <v>2.514153446788329</v>
       </c>
       <c r="E30" t="n">
-        <v>2.846429756280896</v>
+        <v>2.514153446788329</v>
       </c>
       <c r="F30" t="n">
-        <v>2.492379299999999</v>
+        <v>4.500103939999996</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1256,23 +1256,23 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.224628927</v>
+        <v>-0.260629134</v>
       </c>
       <c r="C31" t="n">
-        <v>2.514153446788329</v>
+        <v>1.951042335275331</v>
       </c>
       <c r="D31" t="n">
-        <v>2.514153446788329</v>
+        <v>1.951042335275331</v>
       </c>
       <c r="E31" t="n">
-        <v>2.514153446788329</v>
+        <v>1.951042335275331</v>
       </c>
       <c r="F31" t="n">
-        <v>4.500103939999996</v>
+        <v>1.503583891722505</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1283,23 +1283,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.260629134</v>
+        <v>-0.221537066</v>
       </c>
       <c r="C32" t="n">
-        <v>1.951042335275331</v>
+        <v>2.274541816080082</v>
       </c>
       <c r="D32" t="n">
-        <v>1.951042335275331</v>
+        <v>2.274541816080082</v>
       </c>
       <c r="E32" t="n">
-        <v>1.951042335275331</v>
+        <v>2.274541816080082</v>
       </c>
       <c r="F32" t="n">
-        <v>1.503583891722505</v>
+        <v>8.649029285714292</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1310,23 +1310,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.221537066</v>
+        <v>-0.225877564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.274541816080082</v>
+        <v>2.739852378587157</v>
       </c>
       <c r="D33" t="n">
-        <v>2.274541816080082</v>
+        <v>2.739852378587157</v>
       </c>
       <c r="E33" t="n">
-        <v>2.274541816080082</v>
+        <v>2.739852378587157</v>
       </c>
       <c r="F33" t="n">
-        <v>8.649029285714292</v>
+        <v>1.8373314</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1337,23 +1337,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.225877564</v>
+        <v>-0.224391092</v>
       </c>
       <c r="C34" t="n">
-        <v>2.739852378587157</v>
+        <v>2.128672319808171</v>
       </c>
       <c r="D34" t="n">
-        <v>2.739852378587157</v>
+        <v>2.128672319808171</v>
       </c>
       <c r="E34" t="n">
-        <v>2.739852378587157</v>
+        <v>2.128672319808171</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8373314</v>
+        <v>3.976695733333328</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1364,23 +1364,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.224391092</v>
+        <v>-0.225164057</v>
       </c>
       <c r="C35" t="n">
-        <v>2.128672319808171</v>
+        <v>3.023558075137937</v>
       </c>
       <c r="D35" t="n">
-        <v>2.128672319808171</v>
+        <v>3.023558075137937</v>
       </c>
       <c r="E35" t="n">
-        <v>2.128672319808171</v>
+        <v>3.023558075137937</v>
       </c>
       <c r="F35" t="n">
-        <v>3.976695733333328</v>
+        <v>2.825319019999999</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1391,23 +1391,23 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.225164057</v>
+        <v>-0.212439858</v>
       </c>
       <c r="C36" t="n">
-        <v>3.023558075137937</v>
+        <v>2.146562843771507</v>
       </c>
       <c r="D36" t="n">
-        <v>3.023558075137937</v>
+        <v>2.146562843771507</v>
       </c>
       <c r="E36" t="n">
-        <v>3.023558075137937</v>
+        <v>2.146562843771507</v>
       </c>
       <c r="F36" t="n">
-        <v>2.825319019999999</v>
+        <v>4.884254845484552</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1418,23 +1418,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+          <t>Neu5Ac(a2-3)GalNAc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.212439858</v>
+        <v>-0.210537174</v>
       </c>
       <c r="C37" t="n">
-        <v>2.146562843771507</v>
+        <v>2.718806452913184</v>
       </c>
       <c r="D37" t="n">
-        <v>2.146562843771507</v>
+        <v>2.718806452913184</v>
       </c>
       <c r="E37" t="n">
-        <v>2.146562843771507</v>
+        <v>2.718806452913184</v>
       </c>
       <c r="F37" t="n">
-        <v>4.884254845484552</v>
+        <v>0.3604150015001459</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1445,23 +1445,23 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)GalNAc</t>
+          <t>Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.210537174</v>
+        <v>-0.260227786</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.868751172684017</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.868751172684017</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.868751172684017</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.4366203820382036</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1472,79 +1472,52 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)GalNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.260227786</v>
+        <v>0.487378384</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.664576180536996</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.664576180536996</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.664576180536996</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.254458429157088</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.487378384</v>
+        <v>0.165540214</v>
       </c>
       <c r="C40" t="n">
-        <v>2.664576180536996</v>
+        <v>2.671783269639034</v>
       </c>
       <c r="D40" t="n">
-        <v>2.664576180536996</v>
+        <v>2.671783269639034</v>
       </c>
       <c r="E40" t="n">
-        <v>2.664576180536996</v>
+        <v>2.671783269639034</v>
       </c>
       <c r="F40" t="n">
-        <v>7.254458429157088</v>
+        <v>5.99159165</v>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.165540214</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5.99159165</v>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>

--- a/scripts/correlation/metric_df/CMA_metrics.xlsx
+++ b/scripts/correlation/metric_df/CMA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -477,21 +492,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.25154679</v>
+        <v>-0.2515467904824748</v>
       </c>
       <c r="C2" t="n">
-        <v>2.47631810626725</v>
+        <v>2.474712211238133</v>
       </c>
       <c r="D2" t="n">
-        <v>2.545183117472284</v>
+        <v>0.2036036937027037</v>
       </c>
       <c r="E2" t="n">
-        <v>4.9526362125345</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2494403773710726</v>
+        <v>8.504999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -504,21 +534,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.208693949</v>
+        <v>-0.2086939485576129</v>
       </c>
       <c r="C3" t="n">
-        <v>2.251811563897599</v>
+        <v>2.257583713723263</v>
       </c>
       <c r="D3" t="n">
-        <v>2.579278004625804</v>
+        <v>0.9916584251017696</v>
       </c>
       <c r="E3" t="n">
-        <v>6.755434691692797</v>
+        <v>0.4466666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7515763983805789</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -531,21 +576,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.215353343</v>
+        <v>-0.2153533426080044</v>
       </c>
       <c r="C4" t="n">
         <v>2.069150257718639</v>
       </c>
       <c r="D4" t="n">
-        <v>2.099872183108412</v>
+        <v>8.45345</v>
       </c>
       <c r="E4" t="n">
-        <v>4.138300515437278</v>
+        <v>0.4415</v>
       </c>
       <c r="F4" t="n">
-        <v>8.666448280000003</v>
+        <v>4.46</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -558,21 +618,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.214164165</v>
+        <v>-0.214164165099006</v>
       </c>
       <c r="C5" t="n">
         <v>2.080068376542343</v>
       </c>
       <c r="D5" t="n">
-        <v>2.082825921934366</v>
+        <v>3.212175</v>
       </c>
       <c r="E5" t="n">
-        <v>4.160136753084686</v>
+        <v>0.4595</v>
       </c>
       <c r="F5" t="n">
-        <v>3.273085450000005</v>
+        <v>6.335000000000001</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -585,21 +660,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.174207801</v>
+        <v>-0.1742078007966564</v>
       </c>
       <c r="C6" t="n">
         <v>2.110932973147702</v>
       </c>
       <c r="D6" t="n">
-        <v>2.12907997324471</v>
+        <v>0.6707829217078293</v>
       </c>
       <c r="E6" t="n">
-        <v>4.221865946295405</v>
+        <v>0.4715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5234680198646811</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -612,21 +702,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.152972161</v>
+        <v>1.152972160989059</v>
       </c>
       <c r="C7" t="n">
         <v>2.055265185151331</v>
       </c>
       <c r="D7" t="n">
-        <v>2.062239079820679</v>
+        <v>11.004025</v>
       </c>
       <c r="E7" t="n">
-        <v>4.110530370302661</v>
+        <v>0.4555</v>
       </c>
       <c r="F7" t="n">
-        <v>10.73322032499999</v>
+        <v>6.56</v>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -639,21 +744,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.090270401</v>
+        <v>-0.0902704010874113</v>
       </c>
       <c r="C8" t="n">
         <v>1.803202418091576</v>
       </c>
       <c r="D8" t="n">
-        <v>1.934499862432555</v>
+        <v>1.11209</v>
       </c>
       <c r="E8" t="n">
-        <v>3.606404836183152</v>
+        <v>0.484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.833091190000001</v>
+        <v>5.630000000000001</v>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -666,21 +786,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.30985894</v>
+        <v>-0.3098589400243173</v>
       </c>
       <c r="C9" t="n">
         <v>1.79066229872057</v>
       </c>
       <c r="D9" t="n">
-        <v>1.910583370180939</v>
+        <v>2.343815631563157</v>
       </c>
       <c r="E9" t="n">
-        <v>3.581324597441141</v>
+        <v>0.462</v>
       </c>
       <c r="F9" t="n">
-        <v>2.391027108960895</v>
+        <v>6.855</v>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -693,21 +828,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.30985894</v>
+        <v>-0.3098589400243173</v>
       </c>
       <c r="C10" t="n">
         <v>1.805488031111758</v>
       </c>
       <c r="D10" t="n">
-        <v>1.963481983080236</v>
+        <v>9.156089946560899</v>
       </c>
       <c r="E10" t="n">
-        <v>3.610976062223516</v>
+        <v>0.4625</v>
       </c>
       <c r="F10" t="n">
-        <v>9.114397937983981</v>
+        <v>4.71</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -720,21 +870,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.501553351</v>
+        <v>0.5015533505385553</v>
       </c>
       <c r="C11" t="n">
         <v>2.173393805100897</v>
       </c>
       <c r="D11" t="n">
-        <v>2.273759042726899</v>
+        <v>1.687681231876812</v>
       </c>
       <c r="E11" t="n">
-        <v>4.346787610201794</v>
+        <v>0.4395</v>
       </c>
       <c r="F11" t="n">
-        <v>1.282737626237378</v>
+        <v>4.775</v>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -747,21 +912,36 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04342138</v>
+        <v>0.0434213797177256</v>
       </c>
       <c r="C12" t="n">
         <v>2.144343003119466</v>
       </c>
       <c r="D12" t="n">
-        <v>2.279235744717413</v>
+        <v>15.32095709570957</v>
       </c>
       <c r="E12" t="n">
-        <v>4.288686006238931</v>
+        <v>0.473</v>
       </c>
       <c r="F12" t="n">
-        <v>14.9551726110111</v>
+        <v>5.055000000000001</v>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -774,21 +954,36 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.210477715</v>
+        <v>-0.2104777148211106</v>
       </c>
       <c r="C13" t="n">
         <v>1.91104251702973</v>
       </c>
       <c r="D13" t="n">
-        <v>2.170830920556838</v>
+        <v>0.8890189018901892</v>
       </c>
       <c r="E13" t="n">
-        <v>3.822085034059461</v>
+        <v>0.4405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7255124012401236</v>
+        <v>6.965</v>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -797,160 +992,250 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.218474934</v>
+        <v>-0.3098589400243173</v>
       </c>
       <c r="C14" t="n">
-        <v>1.950519344708611</v>
+        <v>1.932154866331891</v>
       </c>
       <c r="D14" t="n">
-        <v>2.5444463779032</v>
+        <v>3.584439999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.851558034125832</v>
+        <v>0.4429999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1.216908988888886</v>
+        <v>7.58</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.215650637</v>
+        <v>-0.2565116065825436</v>
       </c>
       <c r="C15" t="n">
-        <v>1.709586069464573</v>
+        <v>2.003557029469136</v>
       </c>
       <c r="D15" t="n">
-        <v>1.955767986496258</v>
+        <v>1.353243247103861</v>
       </c>
       <c r="E15" t="n">
-        <v>3.419172138929145</v>
+        <v>0.4085</v>
       </c>
       <c r="F15" t="n">
-        <v>1.482504320000001</v>
+        <v>11.555</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.30985894</v>
+        <v>-0.2184749335691255</v>
       </c>
       <c r="C16" t="n">
-        <v>1.748473542829964</v>
+        <v>1.949153726363942</v>
       </c>
       <c r="D16" t="n">
-        <v>2.074553668654954</v>
+        <v>1.777466666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>3.496947085659928</v>
+        <v>0.426</v>
       </c>
       <c r="F16" t="n">
-        <v>4.162041766666664</v>
+        <v>8.286666666666667</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.224272174</v>
+        <v>-0.2255208103099416</v>
       </c>
       <c r="C17" t="n">
-        <v>2.039262204050003</v>
+        <v>1.531988642113932</v>
       </c>
       <c r="D17" t="n">
-        <v>2.771170367232815</v>
+        <v>14.444325</v>
       </c>
       <c r="E17" t="n">
-        <v>6.11778661215001</v>
+        <v>0.4275</v>
       </c>
       <c r="F17" t="n">
-        <v>1.82620554</v>
+        <v>9.025</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.215531719</v>
+        <v>-0.2156506369852541</v>
       </c>
       <c r="C18" t="n">
-        <v>1.710884249498427</v>
+        <v>1.709586069464573</v>
       </c>
       <c r="D18" t="n">
-        <v>2.061339906144049</v>
+        <v>2.04002</v>
       </c>
       <c r="E18" t="n">
-        <v>8.554421247492137</v>
+        <v>0.503</v>
       </c>
       <c r="F18" t="n">
-        <v>13.35908844</v>
+        <v>6.745</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.30985894</v>
+        <v>-0.3098589400243173</v>
       </c>
       <c r="C19" t="n">
-        <v>1.925784818383869</v>
+        <v>1.748473542829964</v>
       </c>
       <c r="D19" t="n">
-        <v>3.032174824022514</v>
+        <v>3.7624</v>
       </c>
       <c r="E19" t="n">
-        <v>5.777354455151607</v>
+        <v>0.4415</v>
       </c>
       <c r="F19" t="n">
-        <v>4.426204300000001</v>
+        <v>6.245</v>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -959,25 +1244,40 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Gal(a1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.199041791</v>
+        <v>-0.2242721739254932</v>
       </c>
       <c r="C20" t="n">
-        <v>2.887337081704626</v>
+        <v>2.039721836176354</v>
       </c>
       <c r="D20" t="n">
-        <v>2.887337081704626</v>
+        <v>2.253066666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>2.887337081704626</v>
+        <v>0.4276666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2439502333333315</v>
+        <v>3.53</v>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -986,25 +1286,40 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.256303501</v>
+        <v>-0.2155317192343542</v>
       </c>
       <c r="C21" t="n">
-        <v>3.020173157764432</v>
+        <v>1.715696111725846</v>
       </c>
       <c r="D21" t="n">
-        <v>3.020173157764432</v>
+        <v>13.15849333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>3.020173157764432</v>
+        <v>0.4566</v>
       </c>
       <c r="F21" t="n">
-        <v>0.276867153382004</v>
+        <v>6.862</v>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1', '1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)', 'Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1013,25 +1328,40 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.209020972</v>
+        <v>0.6012293175223331</v>
       </c>
       <c r="C22" t="n">
-        <v>2.227165700473461</v>
+        <v>2.373156616242411</v>
       </c>
       <c r="D22" t="n">
-        <v>2.227165700473461</v>
+        <v>0.8197013631970137</v>
       </c>
       <c r="E22" t="n">
-        <v>2.227165700473461</v>
+        <v>0.447</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6479260199999979</v>
+        <v>5.036666666666666</v>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(a1-1)', 'GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1040,106 +1370,166 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.210893927</v>
+        <v>-0.2270072821961897</v>
       </c>
       <c r="C23" t="n">
-        <v>2.143279178290989</v>
+        <v>1.983739511121613</v>
       </c>
       <c r="D23" t="n">
-        <v>2.143279178290989</v>
+        <v>13.13647364736474</v>
       </c>
       <c r="E23" t="n">
-        <v>2.143279178290989</v>
+        <v>0.429</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4713110999999956</v>
+        <v>4.79</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(a1-3)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.018311203</v>
+        <v>-0.3098589400243173</v>
       </c>
       <c r="C24" t="n">
-        <v>2.969947027950714</v>
+        <v>1.925784818383869</v>
       </c>
       <c r="D24" t="n">
-        <v>3.231920278932534</v>
+        <v>4.238844444444444</v>
       </c>
       <c r="E24" t="n">
-        <v>5.939894055901428</v>
+        <v>0.4373333333333334</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2100608227489416</v>
+        <v>6.436666666666667</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.38077223</v>
+        <v>-0.1818595949010699</v>
       </c>
       <c r="C25" t="n">
-        <v>3.100918634996691</v>
+        <v>2.160739296058619</v>
       </c>
       <c r="D25" t="n">
-        <v>3.100918634996691</v>
+        <v>2.750416625004166</v>
       </c>
       <c r="E25" t="n">
-        <v>3.100918634996691</v>
+        <v>0.445</v>
       </c>
       <c r="F25" t="n">
-        <v>3.798450160000005</v>
+        <v>6.613333333333333</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['1C4', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.212915529</v>
+        <v>-0.2250451393063422</v>
       </c>
       <c r="C26" t="n">
-        <v>2.789564909356058</v>
+        <v>2.330934267401226</v>
       </c>
       <c r="D26" t="n">
-        <v>2.789564909356058</v>
+        <v>3.478499300139973</v>
       </c>
       <c r="E26" t="n">
-        <v>2.789564909356058</v>
+        <v>0.44725</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2367685631436876</v>
+        <v>4.71</v>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>['1C4', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1148,25 +1538,40 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Gal(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.219307358</v>
+        <v>-0.199041791109575</v>
       </c>
       <c r="C27" t="n">
-        <v>2.038884053120076</v>
+        <v>2.924296789951471</v>
       </c>
       <c r="D27" t="n">
-        <v>2.038884053120076</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.038884053120076</v>
+        <v>0.458</v>
       </c>
       <c r="F27" t="n">
-        <v>0.437647368596473</v>
+        <v>11.53</v>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1175,25 +1580,40 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-6)GalNAc</t>
+          <t>Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.211220951</v>
+        <v>-0.2563035005184688</v>
       </c>
       <c r="C28" t="n">
-        <v>3.055217489857853</v>
+        <v>3.041646710200382</v>
       </c>
       <c r="D28" t="n">
-        <v>3.055217489857853</v>
+        <v>0.5310864419775312</v>
       </c>
       <c r="E28" t="n">
-        <v>3.055217489857853</v>
+        <v>0.431</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2836208129187068</v>
+        <v>2.49</v>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1202,25 +1622,40 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.261729123</v>
+        <v>-0.2090209723725874</v>
       </c>
       <c r="C29" t="n">
-        <v>2.846429756280896</v>
+        <v>2.265804668686911</v>
       </c>
       <c r="D29" t="n">
-        <v>2.846429756280896</v>
+        <v>0.9357</v>
       </c>
       <c r="E29" t="n">
-        <v>2.846429756280896</v>
+        <v>0.437</v>
       </c>
       <c r="F29" t="n">
-        <v>2.492379299999999</v>
+        <v>12.38</v>
       </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1229,25 +1664,40 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.224628927</v>
+        <v>-0.2108939269492601</v>
       </c>
       <c r="C30" t="n">
-        <v>2.514153446788329</v>
+        <v>2.254148443376134</v>
       </c>
       <c r="D30" t="n">
-        <v>2.514153446788329</v>
+        <v>0.6847000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>2.514153446788329</v>
+        <v>0.454</v>
       </c>
       <c r="F30" t="n">
-        <v>4.500103939999996</v>
+        <v>5.51</v>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1256,25 +1706,40 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.260629134</v>
+        <v>-0.1609484715713231</v>
       </c>
       <c r="C31" t="n">
-        <v>1.951042335275331</v>
+        <v>2.302631596004201</v>
       </c>
       <c r="D31" t="n">
-        <v>1.951042335275331</v>
+        <v>1.54725</v>
       </c>
       <c r="E31" t="n">
-        <v>1.951042335275331</v>
+        <v>0.491</v>
       </c>
       <c r="F31" t="n">
-        <v>1.503583891722505</v>
+        <v>5.54</v>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1283,25 +1748,40 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+          <t>GalNAc(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.221537066</v>
+        <v>-0.0183112028504606</v>
       </c>
       <c r="C32" t="n">
-        <v>2.274541816080082</v>
+        <v>2.97796483037518</v>
       </c>
       <c r="D32" t="n">
-        <v>2.274541816080082</v>
+        <v>0.489065573223989</v>
       </c>
       <c r="E32" t="n">
-        <v>2.274541816080082</v>
+        <v>0.485</v>
       </c>
       <c r="F32" t="n">
-        <v>8.649029285714292</v>
+        <v>5.775</v>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1310,52 +1790,82 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.225877564</v>
+        <v>0.3807722296894265</v>
       </c>
       <c r="C33" t="n">
-        <v>2.739852378587157</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="D33" t="n">
-        <v>2.739852378587157</v>
+        <v>3.38974</v>
       </c>
       <c r="E33" t="n">
-        <v>2.739852378587157</v>
+        <v>0.427</v>
       </c>
       <c r="F33" t="n">
-        <v>1.8373314</v>
+        <v>1.25</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.224391092</v>
+        <v>-0.2262343168153407</v>
       </c>
       <c r="C34" t="n">
-        <v>2.128672319808171</v>
+        <v>2.305444953997026</v>
       </c>
       <c r="D34" t="n">
-        <v>2.128672319808171</v>
+        <v>2.5425</v>
       </c>
       <c r="E34" t="n">
-        <v>2.128672319808171</v>
+        <v>0.467</v>
       </c>
       <c r="F34" t="n">
-        <v>3.976695733333328</v>
+        <v>3.74</v>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1364,25 +1874,40 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.225164057</v>
+        <v>-0.2129155287145575</v>
       </c>
       <c r="C35" t="n">
-        <v>3.023558075137937</v>
+        <v>2.811005603344966</v>
       </c>
       <c r="D35" t="n">
-        <v>3.023558075137937</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.023558075137937</v>
+        <v>0.395</v>
       </c>
       <c r="F35" t="n">
-        <v>2.825319019999999</v>
+        <v>9.91</v>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1391,25 +1916,40 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.212439858</v>
+        <v>-0.2193073578254245</v>
       </c>
       <c r="C36" t="n">
-        <v>2.146562843771507</v>
+        <v>2.123525408676395</v>
       </c>
       <c r="D36" t="n">
-        <v>2.146562843771507</v>
+        <v>1.181698496816985</v>
       </c>
       <c r="E36" t="n">
-        <v>2.146562843771507</v>
+        <v>0.424</v>
       </c>
       <c r="F36" t="n">
-        <v>4.884254845484552</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1418,25 +1958,40 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)GalNAc</t>
+          <t>GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.210537174</v>
+        <v>-0.2112209507642347</v>
       </c>
       <c r="C37" t="n">
-        <v>2.718806452913184</v>
+        <v>3.086745354861214</v>
       </c>
       <c r="D37" t="n">
-        <v>2.718806452913184</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>2.718806452913184</v>
+        <v>0.437</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3604150015001459</v>
+        <v>7.12</v>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1445,25 +2000,40 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.260227786</v>
+        <v>-0.2617291229032745</v>
       </c>
       <c r="C38" t="n">
-        <v>2.868751172684017</v>
+        <v>2.882726071713295</v>
       </c>
       <c r="D38" t="n">
-        <v>2.868751172684017</v>
+        <v>2.519119999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>2.868751172684017</v>
+        <v>0.447</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4366203820382036</v>
+        <v>13.01</v>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1472,52 +2042,586 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.487378384</v>
+        <v>-0.2246289271781927</v>
       </c>
       <c r="C39" t="n">
-        <v>2.664576180536996</v>
+        <v>2.515347223945951</v>
       </c>
       <c r="D39" t="n">
-        <v>2.664576180536996</v>
+        <v>4.75844</v>
       </c>
       <c r="E39" t="n">
-        <v>2.664576180536996</v>
+        <v>0.418</v>
       </c>
       <c r="F39" t="n">
-        <v>7.254458429157088</v>
+        <v>3.26</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.2606291337074509</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.965267323824594</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.712704603793713</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.2215370656547966</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.313004149460443</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.2103</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.2258775635626412</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.736093849598977</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.79525</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.224391091676393</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.155732876884809</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.961833333333333</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.2251640570572421</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.068369033665478</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.563019999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.2236775851709939</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.199804871457699</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.1392</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.2037588618952691</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.234692268713575</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.078340000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.2124398577109581</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.179587502829705</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.433503350335034</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.2105371736965605</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.755303798268773</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6960496049604961</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1540116979593442</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.71534416929608</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.482264893155983</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.2602277862981639</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.895485410038187</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8715871587158717</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4873783841714675</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.664576180536996</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.274647535246475</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.165540214</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B52" t="n">
+        <v>0.1655402135242148</v>
+      </c>
+      <c r="C52" t="n">
         <v>2.671783269639034</v>
       </c>
-      <c r="D40" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5.99159165</v>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="D52" t="n">
+        <v>5.64785</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
